--- a/biology/Botanique/Pierre_Galet/Pierre_Galet.xlsx
+++ b/biology/Botanique/Pierre_Galet/Pierre_Galet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Galet, né à Monaco le 28 janvier 1921[1] et mort à Montpellier le 30 décembre 2019[1],[2], est un professeur d'université et ampélographe français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Galet, né à Monaco le 28 janvier 1921 et mort à Montpellier le 30 décembre 2019 est un professeur d'université et ampélographe français.
 Il est l'auteur de plusieurs ouvrages de référence sur la vigne et le vin.
 </t>
         </is>
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En tant que contrôleur de la Protection des végétaux, Pierre Galet est chargé de mettre sur pied le contrôle des bois et plants de vigne[3]. Cette tâche aboutit en 1956 au début de la publication de Cépages et Vignobles de France, un ouvrage répertoriant et décrivant les cépages cultivés à l'époque en France. Cet ouvrage en plusieurs volumes, édités et réédités sur plus de 25 ans, représente une somme de monographies départementales de la viticulture française, renouvelant la publication de Jules Guyot un siècle auparavant.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant que contrôleur de la Protection des végétaux, Pierre Galet est chargé de mettre sur pied le contrôle des bois et plants de vigne. Cette tâche aboutit en 1956 au début de la publication de Cépages et Vignobles de France, un ouvrage répertoriant et décrivant les cépages cultivés à l'époque en France. Cet ouvrage en plusieurs volumes, édités et réédités sur plus de 25 ans, représente une somme de monographies départementales de la viticulture française, renouvelant la publication de Jules Guyot un siècle auparavant.
 En 1967, il publie sa thèse de doctorat, intitulée Recherches sur les méthodes d'identification et de classification des Vitacées des zones tempérées, décrivant les vignes spontanées qu'il a répertoriées dans plusieurs pays.
 Il s'impose dès les années 1950 comme un expert en ampélographie. En 1979 publie un Précis d'ampélographie pratique édité par l'université Cornell à Geneva, dans l'État de New York, régulièrement réédité et mis à jour.
-Son Dictionnaire encyclopédique des cépages, édité chez Hachette en 2000, est l'ouvrage de référence en matière de description des cépages, et inclut notamment les illustrations de son Précis d'ampélographie pratique. Une remise à jour, le Dictionnaire encyclopédique des cépages et de leurs synonymes, est rééditée en 2015 grâce à une collecte de financement participatif[4].
-Il enseigne à l'université de Montpellier[5], notamment pour le diplôme national d'œnologue jusqu'en 2012.
-Au fil de ses recherches Galet a répertorié quelque 10 000 cépages en France et dans le monde ; il a notamment identifié plus de 100 variétés appartenant à la famille des Pinots[6]. Bien avant la mise en place des analyses d'ADN, il est aussi parvenu à éliminer de cette même famille des plants dont on pensait jusque-là qu'ils en faisaient partie - ainsi de certains vignobles californiens, dans les années 1980, où l'université de Davis avait erronément fourni sous le nom de Pinot des plants de melon de bourgogne (le cépage du Muscadet).
+Son Dictionnaire encyclopédique des cépages, édité chez Hachette en 2000, est l'ouvrage de référence en matière de description des cépages, et inclut notamment les illustrations de son Précis d'ampélographie pratique. Une remise à jour, le Dictionnaire encyclopédique des cépages et de leurs synonymes, est rééditée en 2015 grâce à une collecte de financement participatif.
+Il enseigne à l'université de Montpellier, notamment pour le diplôme national d'œnologue jusqu'en 2012.
+Au fil de ses recherches Galet a répertorié quelque 10 000 cépages en France et dans le monde ; il a notamment identifié plus de 100 variétés appartenant à la famille des Pinots. Bien avant la mise en place des analyses d'ADN, il est aussi parvenu à éliminer de cette même famille des plants dont on pensait jusque-là qu'ils en faisaient partie - ainsi de certains vignobles californiens, dans les années 1980, où l'université de Davis avait erronément fourni sous le nom de Pinot des plants de melon de bourgogne (le cépage du Muscadet).
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Autres engagements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Président d'honneur du Centre d'Ampélographie Alpine Pierre Galet (CAAPG) de Montmélian.
 Président de l'International Ampelography Society de Minneapolis (1988).
@@ -582,12 +598,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Titres honorifiques
-1950 :  Officier de l'ordre du Mérite agricole.
-2013 :  Commandeur de l'ordre du Mérite agricole[7].
-Prix littéraires
-Récompenses de l'OIV
-Tout au long de sa carrière, Pierre Galet a reçu plusieurs prix de l'OIV honorant la qualité de ses ouvrages[8] :
+          <t>Titres honorifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1950 :  Officier de l'ordre du Mérite agricole.
+2013 :  Commandeur de l'ordre du Mérite agricole.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Galet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Galet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Récompenses et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix littéraires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Récompenses de l'OIV</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tout au long de sa carrière, Pierre Galet a reçu plusieurs prix de l'OIV honorant la qualité de ses ouvrages :
 1947 : Diplôme d'honneur pour le livre Les porte-greffes écrit avec Henri Agnel - Istanbul.
 1953 : Prix du Jury dans la catégorie Viticulture pour le livre Précis d'ampélographie pratique - Rome.
 1963 : Prix du Jury dans la catégorie Viticulture pour le livre Cépages et Vignobles de France, Tomes 1 &amp; 2 - Paris.
@@ -595,39 +653,79 @@
 1983 : Prix du Jury Hors concours dans la catégorie Viticulture pour « l'ensemble de son œuvre » avec médaille d'argent - Johannesbourg.
 2001 : Prix du Jury dans la catégorie Viticulture pour l'ouvrage Cépages et vignobles de France, 2ème édition, Tomes 1 &amp; 2, avec médaille d'argent - Adélaïde.
 2006 : Prix du Jury dans la catégorie Viticulture pour l'ouvrage Cépages et vignoble de France, 2ème édition, Tome 3 (2 volumes) - Paris.
-2016 : Grand Prix de l'OIV pour « sa contribution à la diffusion des connaissances du secteur vitivinicole et en reconnaissance de son œuvre reconnue internationalement » - Paris.
-Autres prix
-1952 : Grand Prix Universitaire de la Foire de la Vigne et du Vin pour le livre Précis d'ampélographie pratique - Montpellier[9].
-1959 : Prix Henry Gervais de l'Académie d'Agriculture pour le livre Cépages et Vignobles de France, Tomes 1 &amp; 2 - Paris[9].
-1979 : Prix Victor Vermorel de l'Académie d'Agriculture pour le livre Les Maladies et les Parasites de la Vigne, Tome 1 - Paris[9].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+2016 : Grand Prix de l'OIV pour « sa contribution à la diffusion des connaissances du secteur vitivinicole et en reconnaissance de son œuvre reconnue internationalement » - Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Pierre_Galet</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pierre_Galet</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Récompenses et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix littéraires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres prix</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1952 : Grand Prix Universitaire de la Foire de la Vigne et du Vin pour le livre Précis d'ampélographie pratique - Montpellier.
+1959 : Prix Henry Gervais de l'Académie d'Agriculture pour le livre Cépages et Vignobles de France, Tomes 1 &amp; 2 - Paris.
+1979 : Prix Victor Vermorel de l'Académie d'Agriculture pour le livre Les Maladies et les Parasites de la Vigne, Tome 1 - Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pierre_Galet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Galet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Avec Henri Agnel, Les porte-greffes, ampélographie pratique, Montpellier, Impr. Charles Déhan, 1946, 44 p. (OCLC 81803576).
 Cépages et vignobles de France, t. 1 : Vignes américaines, Impr. Paul Déhan, 1956, 670 p. (OCLC 964022208, BNF 33019336).
@@ -656,64 +754,68 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Pierre_Galet</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pierre_Galet</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2019 : Vitis prohibita de Stephan Balay (documentaire)[10].
-2023 : De la liane sauvage à la vigne de l'avenir. Pierre Galet, ampélographe visionnaire de Clotilde Verriès (documentaire)[11],[12],[13].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2019 : Vitis prohibita de Stephan Balay (documentaire).
+2023 : De la liane sauvage à la vigne de l'avenir. Pierre Galet, ampélographe visionnaire de Clotilde Verriès (documentaire).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Pierre_Galet</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pierre_Galet</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Galet a fait don de son vivant de l'ensemble de ses archives au Centre d'Ampélographie Alpine, fondé par Michel Grisard en 2007 au sein du Musée de la Vigne et du Vin de Savoie de Montmélian[14]. En son hommage, ce centre a été renommé et porte aujourd'hui son nom : Centre d'Ampélographie Alpine Pierre Galet (CAAPG)[15],[16].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Galet a fait don de son vivant de l'ensemble de ses archives au Centre d'Ampélographie Alpine, fondé par Michel Grisard en 2007 au sein du Musée de la Vigne et du Vin de Savoie de Montmélian. En son hommage, ce centre a été renommé et porte aujourd'hui son nom : Centre d'Ampélographie Alpine Pierre Galet (CAAPG),.
 </t>
         </is>
       </c>
